--- a/biology/Botanique/La_Vigne_au_vin/La_Vigne_au_vin.xlsx
+++ b/biology/Botanique/La_Vigne_au_vin/La_Vigne_au_vin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Vigne au vin est une ronde et une chanson de vendanges française, dont le schéma initial remonte au moins au XVIe siècle[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Vigne au vin est une ronde et une chanson de vendanges française, dont le schéma initial remonte au moins au XVIe siècle. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Son succès au XIXe siècle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Réactualisée par Aristide Bruant, qui l'inscrivit à son répertoire, après l'avoir publiée dans l'hebdomadaire Le Gil Blas illustré. Ce fut Théophile Alexandre Steinlen qui l'illustra le 12 juin 1892. Son succès ne se démentit point et elle a notamment été interprétée au siècle suivant par Les Quatre Barbus et Mes Souliers Sont Rouges. Une autre version a été chantée par Jack Gauthier et composée par Daniel White, et Dorothée en a proposé une version pour les enfants en 1982[2]. Dans le film Les Belles de nuit daté de 1952, les amis de Claude la lui chante pour le divertir.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Réactualisée par Aristide Bruant, qui l'inscrivit à son répertoire, après l'avoir publiée dans l'hebdomadaire Le Gil Blas illustré. Ce fut Théophile Alexandre Steinlen qui l'illustra le 12 juin 1892. Son succès ne se démentit point et elle a notamment été interprétée au siècle suivant par Les Quatre Barbus et Mes Souliers Sont Rouges. Une autre version a été chantée par Jack Gauthier et composée par Daniel White, et Dorothée en a proposé une version pour les enfants en 1982. Dans le film Les Belles de nuit daté de 1952, les amis de Claude la lui chante pour le divertir.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Paroles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1.
